--- a/DataIntermediate/PCA_Dist_Prod.xlsx
+++ b/DataIntermediate/PCA_Dist_Prod.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/Modelado_Merlin/GitHub_Datos/Social_Model_Enchugal/DataIntermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4DB114E441178AC67DF44D1E54E324683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67747E06-CF44-4E56-8CF5-606FFC4AF132}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DB114E441178AC67DF44D1E54E324683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF141316-B3B5-48B6-908B-697DFCB4522F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance_Prods" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Distance_Prods!$C$1:$C$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -643,6 +644,1681 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distance_Prods!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PC2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Distance_Prods!$C$2:$C$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="130"/>
+                <c:pt idx="0">
+                  <c:v>-5532.0535900403338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5350.8147445281111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5270.3624613551528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4904.3564887939838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4902.7516253532795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4724.8494744829513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4717.8489611645136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4666.7617276490364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4585.6614233798146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4573.5309563638584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4247.9821262183577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4176.1842037986326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4094.4402025342429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3774.8731543049621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3765.5599582930599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3689.8316520439848</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3684.968575079723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3613.40044917148</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3526.23476447754</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3428.3598671777791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3415.9858186573329</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3369.335036501906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3281.053704649506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3253.3418045273702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3126.0282712776889</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3100.8638470558321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3089.9374276774602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3051.2747649709108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3026.500603721091</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3008.807002864713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2967.322411257956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2881.246116302716</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2876.1297022822978</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2795.9538519912749</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2728.888658135013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2703.5244677252822</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2519.0638679092558</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2510.66655598036</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2437.9802946292189</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2418.8984012377291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2366.792765438533</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2314.125986451113</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2301.5585450182102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2149.658386347227</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2118.3433867559038</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2015.930516877035</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2010.985474993013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1884.4599230399299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1849.1285226028849</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1734.8110622208419</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1734.8110622208419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1703.243070285637</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1426.3029506468499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1425.8974095439451</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1400.5035683355429</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1379.0897926297409</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1364.4656504819991</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1316.8134569736869</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1299.3509726961611</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1291.3160659705979</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1254.279547401213</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1224.85883795987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1160.716384973668</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1120.044135950774</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1096.978104296265</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1088.684901615859</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1071.4995464538131</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1064.6906526044791</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-992.05807099995889</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-777.85176629114596</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-751.23027187743355</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-710.16450893576246</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-666.0359701098937</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-659.69596738700602</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-625.4685604309193</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-218.75606590392849</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.736658984815739</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.048292873477639</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83.239214536880382</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>122.29232196499611</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>146.11706867304329</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>353.90490831114982</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>410.60758791372069</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>673.13794518630687</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>691.4138233231489</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>755.81095092591192</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>918.23898061251487</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>924.32462430879991</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>966.17319251228741</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1371.4182405781621</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1408.3573639813001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1408.571633415937</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1694.5730649824241</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1779.2891314930271</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1984.848979293467</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1991.683908521703</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2294.7474801282428</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2479.1825249588728</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2977.6019835679858</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3091.460377627976</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3331.709033466122</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3421.3357391623949</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3523.5027289210889</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3581.875310069548</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3598.9059684028198</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3752.373483045159</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3943.427576866201</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4359.9652050077684</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4475.480845645523</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4758.1295398790326</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4831.6282979650532</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4879.9535885835048</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5160.1650753197946</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5185.7492249399293</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5504.0100820762373</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5512.2982389678946</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5591.1819460346196</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5700.3903667311897</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5792.8628259227426</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5929.4708877101584</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6057.167566447436</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6379.4986865672126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6693.8194104071563</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9234.5204230955496</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10281.694613088561</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10746.05209100755</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10948.523140461881</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11089.58501690105</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11643.965712134561</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12648.14065723243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Distance_Prods!$D$2:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="130"/>
+                <c:pt idx="0">
+                  <c:v>94.634785026280014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1614.150943655166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265.94060153326149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-976.80667416422682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>669.59546494601011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18.994818041093438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-598.28235612822425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2312.2526059792708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2256.3966403227419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>728.74776657342466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202.2250821571991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1555.626073981364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>778.69326114900377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>376.50866478253562</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>393.90939394843451</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-177.0922313638483</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-889.70043930094209</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-654.45912622111098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>385.42925045532809</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2432.5246200202409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1512.587175172785</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-250.45451635534309</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1034.044483797901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-528.31542584794465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>896.8923295733872</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3475.9876069641882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2315.6173708887541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1773.3816112297879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2478.1689463635721</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>924.16539894586128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-98.385218985267159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1647.361114287701</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2435.8360973296708</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1896.2562157684081</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1366.0519869615989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1535.8954567971391</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0168040567875021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3327.6653498307178</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-773.06383775497977</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4059.4998501241271</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1480.513574274888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2081.576848123605</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1176.4743069073891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2316.7227845831808</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>682.70919519450376</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2158.1490064059039</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-517.82410379788109</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1925.2302134907541</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>248.96920770544759</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2451.1079293734938</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2451.1079293734938</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-4160.7313909759832</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1116.1928658938441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3022.1904072716361</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1510.4036350902511</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1968.8961896846181</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1325.840686625218</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1843.7409618914951</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-549.393299041148</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1206.233170207352</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-4146.4154722346066</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>51.520057765659651</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4268.2502945509914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1666.631617373647</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2013.3691396914451</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3112.4885267454538</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2026.8263090885971</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2762.9171099172781</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1394.9492504497441</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1700.672597572255</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3628.0797951095319</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>869.27698937036791</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4633.880369914501</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3945.0505021742961</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4989.245909432052</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1619.4790970764491</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-958.22119547386728</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1023.413417304649</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2119.6838278284081</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2352.822006984733</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2516.1370487888839</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3342.8922859455788</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-3076.7800933316071</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>602.03344980932116</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2742.822023579326</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3498.3368310028532</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5872.5351895948343</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1036.781446836844</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>856.72424815866282</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3240.8493250184079</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5287.8875831596306</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4952.9897078234053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1091.8949571620069</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2982.987431523311</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2861.13002965342</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1990.0203885007111</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5354.196827250591</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1086.942739639434</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4474.0403932373038</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-4686.0941698222196</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4211.2638935920759</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6829.5965147750603</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-3713.4980650718362</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7196.298883163091</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7566.9248044273918</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-4506.0990806054497</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1649.2625059546299</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-4142.7159501239148</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3550.2554639394612</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6472.2100515948559</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8395.2482865593011</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-3537.1273623657512</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-4129.6960111043809</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2203.768379592053</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8284.9287238593206</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9411.2431382811319</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5321.8189822609947</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1739.3809586772809</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-3974.2828246165359</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2174.8301875046668</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-4231.7709708185912</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-3235.2760785107798</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-3297.18325042177</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2685.2051349285739</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2152.277731751029</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1694.5516853447491</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-1835.4276676620141</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1942.6961710819489</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1641.247114639219</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-521.80262285345202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEE7-44E2-ADEB-433F10AC94F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="8682720"/>
+        <c:axId val="8684160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="8682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8684160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="8684160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8682720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483869</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6301B170-4527-EEDF-3D4E-702D035573FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,1378 +2612,1378 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <f>VLOOKUP(B2,Sheet1!A:C,2)</f>
-        <v>5929.4708877101584</v>
+        <v>-5532.0535900403338</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(B2,Sheet1!A:C,3)</f>
-        <v>2174.8301875046668</v>
+        <v>94.634785026280014</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(B3,Sheet1!A:C,2)</f>
-        <v>4359.9652050077684</v>
+        <v>-5350.8147445281111</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(B3,Sheet1!A:C,3)</f>
-        <v>-4142.7159501239148</v>
+        <v>1614.150943655166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(B4,Sheet1!A:C,2)</f>
-        <v>5700.3903667311897</v>
+        <v>-5270.3624613551528</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(B4,Sheet1!A:C,3)</f>
-        <v>-1739.3809586772809</v>
+        <v>265.94060153326149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <f>VLOOKUP(B5,Sheet1!A:C,2)</f>
-        <v>-1160.716384973668</v>
+        <v>-4904.3564887939838</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(B5,Sheet1!A:C,3)</f>
-        <v>-4268.2502945509914</v>
+        <v>-976.80667416422682</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(B6,Sheet1!A:C,2)</f>
-        <v>-1254.279547401213</v>
+        <v>-4902.7516253532795</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(B6,Sheet1!A:C,3)</f>
-        <v>-4146.4154722346066</v>
+        <v>669.59546494601011</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <f>VLOOKUP(B7,Sheet1!A:C,2)</f>
-        <v>3421.3357391623949</v>
+        <v>-4724.8494744829513</v>
       </c>
       <c r="D7">
         <f>VLOOKUP(B7,Sheet1!A:C,3)</f>
-        <v>6829.5965147750603</v>
+        <v>-18.994818041093438</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <f>VLOOKUP(B8,Sheet1!A:C,2)</f>
-        <v>691.4138233231489</v>
+        <v>-4717.8489611645136</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(B8,Sheet1!A:C,3)</f>
-        <v>-2742.822023579326</v>
+        <v>-598.28235612822425</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <f>VLOOKUP(B9,Sheet1!A:C,2)</f>
-        <v>-4573.5309563638584</v>
+        <v>-4666.7617276490364</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(B9,Sheet1!A:C,3)</f>
-        <v>728.74776657342466</v>
+        <v>-2312.2526059792708</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <f>VLOOKUP(B10,Sheet1!A:C,2)</f>
-        <v>-2437.9802946292189</v>
+        <v>-4585.6614233798146</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(B10,Sheet1!A:C,3)</f>
-        <v>-773.06383775497977</v>
+        <v>-2256.3966403227419</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <f>VLOOKUP(B11,Sheet1!A:C,2)</f>
-        <v>755.81095092591192</v>
+        <v>-4573.5309563638584</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(B11,Sheet1!A:C,3)</f>
-        <v>3498.3368310028532</v>
+        <v>728.74776657342466</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <f>VLOOKUP(B12,Sheet1!A:C,2)</f>
-        <v>-1425.8974095439451</v>
+        <v>-4247.9821262183577</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(B12,Sheet1!A:C,3)</f>
-        <v>-3022.1904072716361</v>
+        <v>202.2250821571991</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <f>VLOOKUP(B13,Sheet1!A:C,2)</f>
-        <v>673.13794518630687</v>
+        <v>-4176.1842037986326</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(B13,Sheet1!A:C,3)</f>
-        <v>602.03344980932116</v>
+        <v>-1555.626073981364</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <f>VLOOKUP(B14,Sheet1!A:C,2)</f>
-        <v>-5532.0535900403338</v>
+        <v>-4094.4402025342429</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(B14,Sheet1!A:C,3)</f>
-        <v>94.634785026280014</v>
+        <v>778.69326114900377</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <f>VLOOKUP(B15,Sheet1!A:C,2)</f>
-        <v>-3428.3598671777791</v>
+        <v>-3774.8731543049621</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(B15,Sheet1!A:C,3)</f>
-        <v>2432.5246200202409</v>
+        <v>376.50866478253562</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="C16">
         <f>VLOOKUP(B16,Sheet1!A:C,2)</f>
-        <v>6693.8194104071563</v>
+        <v>-3765.5599582930599</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(B16,Sheet1!A:C,3)</f>
-        <v>-3297.18325042177</v>
+        <v>393.90939394843451</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <f>VLOOKUP(B17,Sheet1!A:C,2)</f>
-        <v>2479.1825249588728</v>
+        <v>-3689.8316520439848</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(B17,Sheet1!A:C,3)</f>
-        <v>1086.942739639434</v>
+        <v>-177.0922313638483</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <f>VLOOKUP(B18,Sheet1!A:C,2)</f>
-        <v>5512.2982389678946</v>
+        <v>-3684.968575079723</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(B18,Sheet1!A:C,3)</f>
-        <v>9411.2431382811319</v>
+        <v>-889.70043930094209</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <f>VLOOKUP(B19,Sheet1!A:C,2)</f>
-        <v>2294.7474801282428</v>
+        <v>-3613.40044917148</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(B19,Sheet1!A:C,3)</f>
-        <v>5354.196827250591</v>
+        <v>-654.45912622111098</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <f>VLOOKUP(B20,Sheet1!A:C,2)</f>
-        <v>-4094.4402025342429</v>
+        <v>-3526.23476447754</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(B20,Sheet1!A:C,3)</f>
-        <v>778.69326114900377</v>
+        <v>385.42925045532809</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <f>VLOOKUP(B21,Sheet1!A:C,2)</f>
-        <v>-1120.044135950774</v>
+        <v>-3428.3598671777791</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(B21,Sheet1!A:C,3)</f>
-        <v>1666.631617373647</v>
+        <v>2432.5246200202409</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <f>VLOOKUP(B22,Sheet1!A:C,2)</f>
-        <v>1991.683908521703</v>
+        <v>-3415.9858186573329</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(B22,Sheet1!A:C,3)</f>
-        <v>1990.0203885007111</v>
+        <v>-1512.587175172785</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <f>VLOOKUP(B23,Sheet1!A:C,2)</f>
-        <v>-1096.978104296265</v>
+        <v>-3369.335036501906</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(B23,Sheet1!A:C,3)</f>
-        <v>-2013.3691396914451</v>
+        <v>-250.45451635534309</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <f>VLOOKUP(B24,Sheet1!A:C,2)</f>
-        <v>-1224.85883795987</v>
+        <v>-3281.053704649506</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(B24,Sheet1!A:C,3)</f>
-        <v>51.520057765659651</v>
+        <v>1034.044483797901</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <f>VLOOKUP(B25,Sheet1!A:C,2)</f>
-        <v>-3613.40044917148</v>
+        <v>-3253.3418045273702</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(B25,Sheet1!A:C,3)</f>
-        <v>-654.45912622111098</v>
+        <v>-528.31542584794465</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <f>VLOOKUP(B26,Sheet1!A:C,2)</f>
-        <v>5185.7492249399293</v>
+        <v>-3126.0282712776889</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(B26,Sheet1!A:C,3)</f>
-        <v>-2203.768379592053</v>
+        <v>896.8923295733872</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <f>VLOOKUP(B27,Sheet1!A:C,2)</f>
-        <v>-3253.3418045273702</v>
+        <v>-3100.8638470558321</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(B27,Sheet1!A:C,3)</f>
-        <v>-528.31542584794465</v>
+        <v>-3475.9876069641882</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <f>VLOOKUP(B28,Sheet1!A:C,2)</f>
-        <v>-4902.7516253532795</v>
+        <v>-3089.9374276774602</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(B28,Sheet1!A:C,3)</f>
-        <v>669.59546494601011</v>
+        <v>-2315.6173708887541</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <f>VLOOKUP(B29,Sheet1!A:C,2)</f>
-        <v>-2149.658386347227</v>
+        <v>-3051.2747649709108</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(B29,Sheet1!A:C,3)</f>
-        <v>2316.7227845831808</v>
+        <v>-1773.3816112297879</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C30">
         <f>VLOOKUP(B30,Sheet1!A:C,2)</f>
-        <v>2.736658984815739</v>
+        <v>-3026.500603721091</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(B30,Sheet1!A:C,3)</f>
-        <v>-958.22119547386728</v>
+        <v>-2478.1689463635721</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <f>VLOOKUP(B31,Sheet1!A:C,2)</f>
-        <v>410.60758791372069</v>
+        <v>-3008.807002864713</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(B31,Sheet1!A:C,3)</f>
-        <v>-3076.7800933316071</v>
+        <v>924.16539894586128</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C32">
         <f>VLOOKUP(B32,Sheet1!A:C,2)</f>
-        <v>4831.6282979650532</v>
+        <v>-2967.322411257956</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(B32,Sheet1!A:C,3)</f>
-        <v>8395.2482865593011</v>
+        <v>-98.385218985267159</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <f>VLOOKUP(B33,Sheet1!A:C,2)</f>
-        <v>-1064.6906526044791</v>
+        <v>-2881.246116302716</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(B33,Sheet1!A:C,3)</f>
-        <v>-2762.9171099172781</v>
+        <v>-1647.361114287701</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C34">
         <f>VLOOKUP(B34,Sheet1!A:C,2)</f>
-        <v>-4247.9821262183577</v>
+        <v>-2876.1297022822978</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(B34,Sheet1!A:C,3)</f>
-        <v>202.2250821571991</v>
+        <v>2435.8360973296708</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <f>VLOOKUP(B35,Sheet1!A:C,2)</f>
-        <v>-4717.8489611645136</v>
+        <v>-2795.9538519912749</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(B35,Sheet1!A:C,3)</f>
-        <v>-598.28235612822425</v>
+        <v>1896.2562157684081</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <f>VLOOKUP(B36,Sheet1!A:C,2)</f>
-        <v>-666.0359701098937</v>
+        <v>-2728.888658135013</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(B36,Sheet1!A:C,3)</f>
-        <v>-4633.880369914501</v>
+        <v>-1366.0519869615989</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <f>VLOOKUP(B37,Sheet1!A:C,2)</f>
-        <v>-2728.888658135013</v>
+        <v>-2703.5244677252822</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(B37,Sheet1!A:C,3)</f>
-        <v>-1366.0519869615989</v>
+        <v>1535.8954567971391</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C38">
         <f>VLOOKUP(B38,Sheet1!A:C,2)</f>
-        <v>-3089.9374276774602</v>
+        <v>-2519.0638679092558</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(B38,Sheet1!A:C,3)</f>
-        <v>-2315.6173708887541</v>
+        <v>1.0168040567875021</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <f>VLOOKUP(B39,Sheet1!A:C,2)</f>
-        <v>-3126.0282712776889</v>
+        <v>-2510.66655598036</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(B39,Sheet1!A:C,3)</f>
-        <v>896.8923295733872</v>
+        <v>-3327.6653498307178</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <f>VLOOKUP(B40,Sheet1!A:C,2)</f>
-        <v>-3008.807002864713</v>
+        <v>-2437.9802946292189</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(B40,Sheet1!A:C,3)</f>
-        <v>924.16539894586128</v>
+        <v>-773.06383775497977</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <f>VLOOKUP(B41,Sheet1!A:C,2)</f>
-        <v>-2881.246116302716</v>
+        <v>-2418.8984012377291</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(B41,Sheet1!A:C,3)</f>
-        <v>-1647.361114287701</v>
+        <v>4059.4998501241271</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C42">
         <f>VLOOKUP(B42,Sheet1!A:C,2)</f>
-        <v>-2703.5244677252822</v>
+        <v>-2366.792765438533</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(B42,Sheet1!A:C,3)</f>
-        <v>1535.8954567971391</v>
+        <v>1480.513574274888</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <f>VLOOKUP(B43,Sheet1!A:C,2)</f>
-        <v>-5350.8147445281111</v>
+        <v>-2314.125986451113</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(B43,Sheet1!A:C,3)</f>
-        <v>1614.150943655166</v>
+        <v>-2081.576848123605</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <f>VLOOKUP(B44,Sheet1!A:C,2)</f>
-        <v>11643.965712134561</v>
+        <v>-2301.5585450182102</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(B44,Sheet1!A:C,3)</f>
-        <v>-1641.247114639219</v>
+        <v>1176.4743069073891</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <f>VLOOKUP(B45,Sheet1!A:C,2)</f>
-        <v>6057.167566447436</v>
+        <v>-2149.658386347227</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(B45,Sheet1!A:C,3)</f>
-        <v>-4231.7709708185912</v>
+        <v>2316.7227845831808</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <f>VLOOKUP(B46,Sheet1!A:C,2)</f>
-        <v>-777.85176629114596</v>
+        <v>-2118.3433867559038</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(B46,Sheet1!A:C,3)</f>
-        <v>1700.672597572255</v>
+        <v>682.70919519450376</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <f>VLOOKUP(B47,Sheet1!A:C,2)</f>
-        <v>-3051.2747649709108</v>
+        <v>-2015.930516877035</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(B47,Sheet1!A:C,3)</f>
-        <v>-1773.3816112297879</v>
+        <v>-2158.1490064059039</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C48">
         <f>VLOOKUP(B48,Sheet1!A:C,2)</f>
-        <v>-2015.930516877035</v>
+        <v>-2010.985474993013</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(B48,Sheet1!A:C,3)</f>
-        <v>-2158.1490064059039</v>
+        <v>-517.82410379788109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <f>VLOOKUP(B49,Sheet1!A:C,2)</f>
-        <v>-2301.5585450182102</v>
+        <v>-1884.4599230399299</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(B49,Sheet1!A:C,3)</f>
-        <v>1176.4743069073891</v>
+        <v>1925.2302134907541</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <f>VLOOKUP(B50,Sheet1!A:C,2)</f>
-        <v>3581.875310069548</v>
+        <v>-1849.1285226028849</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(B50,Sheet1!A:C,3)</f>
-        <v>7196.298883163091</v>
+        <v>248.96920770544759</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <f>VLOOKUP(B51,Sheet1!A:C,2)</f>
-        <v>-710.16450893576246</v>
+        <v>-1734.8110622208419</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(B51,Sheet1!A:C,3)</f>
-        <v>869.27698937036791</v>
+        <v>-2451.1079293734938</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C52">
         <f>VLOOKUP(B52,Sheet1!A:C,2)</f>
-        <v>-1426.3029506468499</v>
+        <v>-1734.8110622208419</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(B52,Sheet1!A:C,3)</f>
-        <v>-1116.1928658938441</v>
+        <v>-2451.1079293734938</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <f>VLOOKUP(B53,Sheet1!A:C,2)</f>
-        <v>-3774.8731543049621</v>
+        <v>-1703.243070285637</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(B53,Sheet1!A:C,3)</f>
-        <v>376.50866478253562</v>
+        <v>-4160.7313909759832</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <f>VLOOKUP(B54,Sheet1!A:C,2)</f>
-        <v>12648.14065723243</v>
+        <v>-1426.3029506468499</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(B54,Sheet1!A:C,3)</f>
-        <v>-521.80262285345202</v>
+        <v>-1116.1928658938441</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <f>VLOOKUP(B55,Sheet1!A:C,2)</f>
-        <v>1371.4182405781621</v>
+        <v>-1425.8974095439451</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(B55,Sheet1!A:C,3)</f>
-        <v>3240.8493250184079</v>
+        <v>-3022.1904072716361</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C56">
         <f>VLOOKUP(B56,Sheet1!A:C,2)</f>
-        <v>-3684.968575079723</v>
+        <v>-1400.5035683355429</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(B56,Sheet1!A:C,3)</f>
-        <v>-889.70043930094209</v>
+        <v>-1510.4036350902511</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <f>VLOOKUP(B57,Sheet1!A:C,2)</f>
-        <v>3752.373483045159</v>
+        <v>-1379.0897926297409</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(B57,Sheet1!A:C,3)</f>
-        <v>-4506.0990806054497</v>
+        <v>-1968.8961896846181</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C58">
         <f>VLOOKUP(B58,Sheet1!A:C,2)</f>
-        <v>-2418.8984012377291</v>
+        <v>-1364.4656504819991</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(B58,Sheet1!A:C,3)</f>
-        <v>4059.4998501241271</v>
+        <v>-1325.840686625218</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C59">
         <f>VLOOKUP(B59,Sheet1!A:C,2)</f>
-        <v>-3281.053704649506</v>
+        <v>-1316.8134569736869</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(B59,Sheet1!A:C,3)</f>
-        <v>1034.044483797901</v>
+        <v>1843.7409618914951</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C60">
         <f>VLOOKUP(B60,Sheet1!A:C,2)</f>
-        <v>-2795.9538519912749</v>
+        <v>-1299.3509726961611</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(B60,Sheet1!A:C,3)</f>
-        <v>1896.2562157684081</v>
+        <v>-549.393299041148</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <f>VLOOKUP(B61,Sheet1!A:C,2)</f>
-        <v>3091.460377627976</v>
+        <v>-1291.3160659705979</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(B61,Sheet1!A:C,3)</f>
-        <v>-4686.0941698222196</v>
+        <v>-1206.233170207352</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <f>VLOOKUP(B62,Sheet1!A:C,2)</f>
-        <v>-2510.66655598036</v>
+        <v>-1254.279547401213</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(B62,Sheet1!A:C,3)</f>
-        <v>-3327.6653498307178</v>
+        <v>-4146.4154722346066</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <f>VLOOKUP(B63,Sheet1!A:C,2)</f>
-        <v>353.90490831114982</v>
+        <v>-1224.85883795987</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(B63,Sheet1!A:C,3)</f>
-        <v>3342.8922859455788</v>
+        <v>51.520057765659651</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <f>VLOOKUP(B64,Sheet1!A:C,2)</f>
-        <v>-1379.0897926297409</v>
+        <v>-1160.716384973668</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(B64,Sheet1!A:C,3)</f>
-        <v>-1968.8961896846181</v>
+        <v>-4268.2502945509914</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <f>VLOOKUP(B65,Sheet1!A:C,2)</f>
-        <v>3598.9059684028198</v>
+        <v>-1120.044135950774</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(B65,Sheet1!A:C,3)</f>
-        <v>7566.9248044273918</v>
+        <v>1666.631617373647</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <f>VLOOKUP(B66,Sheet1!A:C,2)</f>
-        <v>-3415.9858186573329</v>
+        <v>-1096.978104296265</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(B66,Sheet1!A:C,3)</f>
-        <v>-1512.587175172785</v>
+        <v>-2013.3691396914451</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <f>VLOOKUP(B67,Sheet1!A:C,2)</f>
-        <v>-2118.3433867559038</v>
+        <v>-1088.684901615859</v>
       </c>
       <c r="D67">
         <f>VLOOKUP(B67,Sheet1!A:C,3)</f>
-        <v>682.70919519450376</v>
+        <v>3112.4885267454538</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C68">
         <f>VLOOKUP(B68,Sheet1!A:C,2)</f>
-        <v>-2314.125986451113</v>
+        <v>-1071.4995464538131</v>
       </c>
       <c r="D68">
         <f>VLOOKUP(B68,Sheet1!A:C,3)</f>
-        <v>-2081.576848123605</v>
+        <v>-2026.8263090885971</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <f>VLOOKUP(B69,Sheet1!A:C,2)</f>
-        <v>2977.6019835679858</v>
+        <v>-1064.6906526044791</v>
       </c>
       <c r="D69">
         <f>VLOOKUP(B69,Sheet1!A:C,3)</f>
-        <v>-4474.0403932373038</v>
+        <v>-2762.9171099172781</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C70">
         <f>VLOOKUP(B70,Sheet1!A:C,2)</f>
-        <v>-4176.1842037986326</v>
+        <v>-992.05807099995889</v>
       </c>
       <c r="D70">
         <f>VLOOKUP(B70,Sheet1!A:C,3)</f>
-        <v>-1555.626073981364</v>
+        <v>1394.9492504497441</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C71">
         <f>VLOOKUP(B71,Sheet1!A:C,2)</f>
-        <v>-1884.4599230399299</v>
+        <v>-777.85176629114596</v>
       </c>
       <c r="D71">
         <f>VLOOKUP(B71,Sheet1!A:C,3)</f>
-        <v>1925.2302134907541</v>
+        <v>1700.672597572255</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C72">
         <f>VLOOKUP(B72,Sheet1!A:C,2)</f>
-        <v>83.239214536880382</v>
+        <v>-751.23027187743355</v>
       </c>
       <c r="D72">
         <f>VLOOKUP(B72,Sheet1!A:C,3)</f>
-        <v>-2119.6838278284081</v>
+        <v>-3628.0797951095319</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C73">
         <f>VLOOKUP(B73,Sheet1!A:C,2)</f>
-        <v>-625.4685604309193</v>
+        <v>-710.16450893576246</v>
       </c>
       <c r="D73">
         <f>VLOOKUP(B73,Sheet1!A:C,3)</f>
-        <v>4989.245909432052</v>
+        <v>869.27698937036791</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <f>VLOOKUP(B74,Sheet1!A:C,2)</f>
-        <v>1694.5730649824241</v>
+        <v>-666.0359701098937</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(B74,Sheet1!A:C,3)</f>
-        <v>1091.8949571620069</v>
+        <v>-4633.880369914501</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C75">
         <f>VLOOKUP(B75,Sheet1!A:C,2)</f>
-        <v>10746.05209100755</v>
+        <v>-659.69596738700602</v>
       </c>
       <c r="D75">
         <f>VLOOKUP(B75,Sheet1!A:C,3)</f>
-        <v>-1694.5516853447491</v>
+        <v>3945.0505021742961</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C76">
         <f>VLOOKUP(B76,Sheet1!A:C,2)</f>
-        <v>-5270.3624613551528</v>
+        <v>-625.4685604309193</v>
       </c>
       <c r="D76">
         <f>VLOOKUP(B76,Sheet1!A:C,3)</f>
-        <v>265.94060153326149</v>
+        <v>4989.245909432052</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C77">
         <f>VLOOKUP(B77,Sheet1!A:C,2)</f>
-        <v>146.11706867304329</v>
+        <v>-218.75606590392849</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(B77,Sheet1!A:C,3)</f>
-        <v>-2516.1370487888839</v>
+        <v>-1619.4790970764491</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C78">
         <f>VLOOKUP(B78,Sheet1!A:C,2)</f>
-        <v>3943.427576866201</v>
+        <v>2.736658984815739</v>
       </c>
       <c r="D78">
         <f>VLOOKUP(B78,Sheet1!A:C,3)</f>
-        <v>-1649.2625059546299</v>
+        <v>-958.22119547386728</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79">
         <f>VLOOKUP(B79,Sheet1!A:C,2)</f>
-        <v>-4724.8494744829513</v>
+        <v>28.048292873477639</v>
       </c>
       <c r="D79">
         <f>VLOOKUP(B79,Sheet1!A:C,3)</f>
-        <v>-18.994818041093438</v>
+        <v>1023.413417304649</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C80">
         <f>VLOOKUP(B80,Sheet1!A:C,2)</f>
-        <v>-751.23027187743355</v>
+        <v>83.239214536880382</v>
       </c>
       <c r="D80">
         <f>VLOOKUP(B80,Sheet1!A:C,3)</f>
-        <v>-3628.0797951095319</v>
+        <v>-2119.6838278284081</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C81">
         <f>VLOOKUP(B81,Sheet1!A:C,2)</f>
-        <v>28.048292873477639</v>
+        <v>122.29232196499611</v>
       </c>
       <c r="D81">
         <f>VLOOKUP(B81,Sheet1!A:C,3)</f>
-        <v>1023.413417304649</v>
+        <v>-2352.822006984733</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C82">
         <f>VLOOKUP(B82,Sheet1!A:C,2)</f>
-        <v>966.17319251228741</v>
+        <v>146.11706867304329</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(B82,Sheet1!A:C,3)</f>
-        <v>856.72424815866282</v>
+        <v>-2516.1370487888839</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C83">
         <f>VLOOKUP(B83,Sheet1!A:C,2)</f>
-        <v>4475.480845645523</v>
+        <v>353.90490831114982</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(B83,Sheet1!A:C,3)</f>
-        <v>3550.2554639394612</v>
+        <v>3342.8922859455788</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C84">
         <f>VLOOKUP(B84,Sheet1!A:C,2)</f>
-        <v>-1703.243070285637</v>
+        <v>410.60758791372069</v>
       </c>
       <c r="D84">
         <f>VLOOKUP(B84,Sheet1!A:C,3)</f>
-        <v>-4160.7313909759832</v>
+        <v>-3076.7800933316071</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <f>VLOOKUP(B85,Sheet1!A:C,2)</f>
-        <v>4758.1295398790326</v>
+        <v>673.13794518630687</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(B85,Sheet1!A:C,3)</f>
-        <v>6472.2100515948559</v>
+        <v>602.03344980932116</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <f>VLOOKUP(B86,Sheet1!A:C,2)</f>
-        <v>5504.0100820762373</v>
+        <v>691.4138233231489</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(B86,Sheet1!A:C,3)</f>
-        <v>8284.9287238593206</v>
+        <v>-2742.822023579326</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <f>VLOOKUP(B87,Sheet1!A:C,2)</f>
-        <v>-4585.6614233798146</v>
+        <v>755.81095092591192</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(B87,Sheet1!A:C,3)</f>
-        <v>-2256.3966403227419</v>
+        <v>3498.3368310028532</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2328,694 +4004,700 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C89">
         <f>VLOOKUP(B89,Sheet1!A:C,2)</f>
-        <v>-1316.8134569736869</v>
+        <v>924.32462430879991</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(B89,Sheet1!A:C,3)</f>
-        <v>1843.7409618914951</v>
+        <v>1036.781446836844</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C90">
         <f>VLOOKUP(B90,Sheet1!A:C,2)</f>
-        <v>9234.5204230955496</v>
+        <v>966.17319251228741</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(B90,Sheet1!A:C,3)</f>
-        <v>-2685.2051349285739</v>
+        <v>856.72424815866282</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C91">
         <f>VLOOKUP(B91,Sheet1!A:C,2)</f>
-        <v>-1299.3509726961611</v>
+        <v>1371.4182405781621</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(B91,Sheet1!A:C,3)</f>
-        <v>-549.393299041148</v>
+        <v>3240.8493250184079</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <f>VLOOKUP(B92,Sheet1!A:C,2)</f>
-        <v>10281.694613088561</v>
+        <v>1408.3573639813001</v>
       </c>
       <c r="D92">
         <f>VLOOKUP(B92,Sheet1!A:C,3)</f>
-        <v>-2152.277731751029</v>
+        <v>5287.8875831596306</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C93">
         <f>VLOOKUP(B93,Sheet1!A:C,2)</f>
-        <v>-1291.3160659705979</v>
+        <v>1408.571633415937</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(B93,Sheet1!A:C,3)</f>
-        <v>-1206.233170207352</v>
+        <v>4952.9897078234053</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C94">
         <f>VLOOKUP(B94,Sheet1!A:C,2)</f>
-        <v>-3689.8316520439848</v>
+        <v>1694.5730649824241</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(B94,Sheet1!A:C,3)</f>
-        <v>-177.0922313638483</v>
+        <v>1091.8949571620069</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C95">
         <f>VLOOKUP(B95,Sheet1!A:C,2)</f>
-        <v>5591.1819460346196</v>
+        <v>1779.2891314930271</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(B95,Sheet1!A:C,3)</f>
-        <v>5321.8189822609947</v>
+        <v>-2982.987431523311</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C96">
         <f>VLOOKUP(B96,Sheet1!A:C,2)</f>
-        <v>1408.3573639813001</v>
+        <v>1984.848979293467</v>
       </c>
       <c r="D96">
         <f>VLOOKUP(B96,Sheet1!A:C,3)</f>
-        <v>5287.8875831596306</v>
+        <v>2861.13002965342</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="C97">
         <f>VLOOKUP(B97,Sheet1!A:C,2)</f>
-        <v>-2519.0638679092558</v>
+        <v>1991.683908521703</v>
       </c>
       <c r="D97">
         <f>VLOOKUP(B97,Sheet1!A:C,3)</f>
-        <v>1.0168040567875021</v>
+        <v>1990.0203885007111</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <f>VLOOKUP(B98,Sheet1!A:C,2)</f>
-        <v>-1849.1285226028849</v>
+        <v>2294.7474801282428</v>
       </c>
       <c r="D98">
         <f>VLOOKUP(B98,Sheet1!A:C,3)</f>
-        <v>248.96920770544759</v>
+        <v>5354.196827250591</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C99">
         <f>VLOOKUP(B99,Sheet1!A:C,2)</f>
-        <v>5160.1650753197946</v>
+        <v>2479.1825249588728</v>
       </c>
       <c r="D99">
         <f>VLOOKUP(B99,Sheet1!A:C,3)</f>
-        <v>-4129.6960111043809</v>
+        <v>1086.942739639434</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C100">
         <f>VLOOKUP(B100,Sheet1!A:C,2)</f>
-        <v>-3369.335036501906</v>
+        <v>2977.6019835679858</v>
       </c>
       <c r="D100">
         <f>VLOOKUP(B100,Sheet1!A:C,3)</f>
-        <v>-250.45451635534309</v>
+        <v>-4474.0403932373038</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C101">
         <f>VLOOKUP(B101,Sheet1!A:C,2)</f>
-        <v>4879.9535885835048</v>
+        <v>3091.460377627976</v>
       </c>
       <c r="D101">
         <f>VLOOKUP(B101,Sheet1!A:C,3)</f>
-        <v>-3537.1273623657512</v>
+        <v>-4686.0941698222196</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C102">
         <f>VLOOKUP(B102,Sheet1!A:C,2)</f>
-        <v>-1088.684901615859</v>
+        <v>3331.709033466122</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,Sheet1!A:C,3)</f>
-        <v>3112.4885267454538</v>
+        <v>4211.2638935920759</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C103">
         <f>VLOOKUP(B103,Sheet1!A:C,2)</f>
-        <v>-3100.8638470558321</v>
+        <v>3421.3357391623949</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(B103,Sheet1!A:C,3)</f>
-        <v>-3475.9876069641882</v>
+        <v>6829.5965147750603</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C104">
         <f>VLOOKUP(B104,Sheet1!A:C,2)</f>
-        <v>-1071.4995464538131</v>
+        <v>3523.5027289210889</v>
       </c>
       <c r="D104">
         <f>VLOOKUP(B104,Sheet1!A:C,3)</f>
-        <v>-2026.8263090885971</v>
+        <v>-3713.4980650718362</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C105">
         <f>VLOOKUP(B105,Sheet1!A:C,2)</f>
-        <v>10948.523140461881</v>
+        <v>3581.875310069548</v>
       </c>
       <c r="D105">
         <f>VLOOKUP(B105,Sheet1!A:C,3)</f>
-        <v>-1835.4276676620141</v>
+        <v>7196.298883163091</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C106">
         <f>VLOOKUP(B106,Sheet1!A:C,2)</f>
-        <v>122.29232196499611</v>
+        <v>3598.9059684028198</v>
       </c>
       <c r="D106">
         <f>VLOOKUP(B106,Sheet1!A:C,3)</f>
-        <v>-2352.822006984733</v>
+        <v>7566.9248044273918</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C107">
         <f>VLOOKUP(B107,Sheet1!A:C,2)</f>
-        <v>1779.2891314930271</v>
+        <v>3752.373483045159</v>
       </c>
       <c r="D107">
         <f>VLOOKUP(B107,Sheet1!A:C,3)</f>
-        <v>-2982.987431523311</v>
+        <v>-4506.0990806054497</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C108">
         <f>VLOOKUP(B108,Sheet1!A:C,2)</f>
-        <v>-4904.3564887939838</v>
+        <v>3943.427576866201</v>
       </c>
       <c r="D108">
         <f>VLOOKUP(B108,Sheet1!A:C,3)</f>
-        <v>-976.80667416422682</v>
+        <v>-1649.2625059546299</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <f>VLOOKUP(B109,Sheet1!A:C,2)</f>
-        <v>1408.571633415937</v>
+        <v>4359.9652050077684</v>
       </c>
       <c r="D109">
         <f>VLOOKUP(B109,Sheet1!A:C,3)</f>
-        <v>4952.9897078234053</v>
+        <v>-4142.7159501239148</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C110">
         <f>VLOOKUP(B110,Sheet1!A:C,2)</f>
-        <v>924.32462430879991</v>
+        <v>4475.480845645523</v>
       </c>
       <c r="D110">
         <f>VLOOKUP(B110,Sheet1!A:C,3)</f>
-        <v>1036.781446836844</v>
+        <v>3550.2554639394612</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C111">
         <f>VLOOKUP(B111,Sheet1!A:C,2)</f>
-        <v>-2010.985474993013</v>
+        <v>4758.1295398790326</v>
       </c>
       <c r="D111">
         <f>VLOOKUP(B111,Sheet1!A:C,3)</f>
-        <v>-517.82410379788109</v>
+        <v>6472.2100515948559</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C112">
         <f>VLOOKUP(B112,Sheet1!A:C,2)</f>
-        <v>-2876.1297022822978</v>
+        <v>4831.6282979650532</v>
       </c>
       <c r="D112">
         <f>VLOOKUP(B112,Sheet1!A:C,3)</f>
-        <v>2435.8360973296708</v>
+        <v>8395.2482865593011</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C113">
         <f>VLOOKUP(B113,Sheet1!A:C,2)</f>
-        <v>3331.709033466122</v>
+        <v>4879.9535885835048</v>
       </c>
       <c r="D113">
         <f>VLOOKUP(B113,Sheet1!A:C,3)</f>
-        <v>4211.2638935920759</v>
+        <v>-3537.1273623657512</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C114">
         <f>VLOOKUP(B114,Sheet1!A:C,2)</f>
-        <v>5792.8628259227426</v>
+        <v>5160.1650753197946</v>
       </c>
       <c r="D114">
         <f>VLOOKUP(B114,Sheet1!A:C,3)</f>
-        <v>-3974.2828246165359</v>
+        <v>-4129.6960111043809</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C115">
         <f>VLOOKUP(B115,Sheet1!A:C,2)</f>
-        <v>-4666.7617276490364</v>
+        <v>5185.7492249399293</v>
       </c>
       <c r="D115">
         <f>VLOOKUP(B115,Sheet1!A:C,3)</f>
-        <v>-2312.2526059792708</v>
+        <v>-2203.768379592053</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C116">
         <f>VLOOKUP(B116,Sheet1!A:C,2)</f>
-        <v>-1734.8110622208419</v>
+        <v>5504.0100820762373</v>
       </c>
       <c r="D116">
         <f>VLOOKUP(B116,Sheet1!A:C,3)</f>
-        <v>-2451.1079293734938</v>
+        <v>8284.9287238593206</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C117">
         <f>VLOOKUP(B117,Sheet1!A:C,2)</f>
-        <v>-1734.8110622208419</v>
+        <v>5512.2982389678946</v>
       </c>
       <c r="D117">
         <f>VLOOKUP(B117,Sheet1!A:C,3)</f>
-        <v>-2451.1079293734938</v>
+        <v>9411.2431382811319</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C118">
         <f>VLOOKUP(B118,Sheet1!A:C,2)</f>
-        <v>-1364.4656504819991</v>
+        <v>5591.1819460346196</v>
       </c>
       <c r="D118">
         <f>VLOOKUP(B118,Sheet1!A:C,3)</f>
-        <v>-1325.840686625218</v>
+        <v>5321.8189822609947</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <f>VLOOKUP(B119,Sheet1!A:C,2)</f>
-        <v>-3526.23476447754</v>
+        <v>5700.3903667311897</v>
       </c>
       <c r="D119">
         <f>VLOOKUP(B119,Sheet1!A:C,3)</f>
-        <v>385.42925045532809</v>
+        <v>-1739.3809586772809</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C120">
         <f>VLOOKUP(B120,Sheet1!A:C,2)</f>
-        <v>11089.58501690105</v>
+        <v>5792.8628259227426</v>
       </c>
       <c r="D120">
         <f>VLOOKUP(B120,Sheet1!A:C,3)</f>
-        <v>-1942.6961710819489</v>
+        <v>-3974.2828246165359</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <f>VLOOKUP(B121,Sheet1!A:C,2)</f>
-        <v>3523.5027289210889</v>
+        <v>5929.4708877101584</v>
       </c>
       <c r="D121">
         <f>VLOOKUP(B121,Sheet1!A:C,3)</f>
-        <v>-3713.4980650718362</v>
+        <v>2174.8301875046668</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C122">
         <f>VLOOKUP(B122,Sheet1!A:C,2)</f>
-        <v>1984.848979293467</v>
+        <v>6057.167566447436</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(B122,Sheet1!A:C,3)</f>
-        <v>2861.13002965342</v>
+        <v>-4231.7709708185912</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C123">
         <f>VLOOKUP(B123,Sheet1!A:C,2)</f>
-        <v>-659.69596738700602</v>
+        <v>6379.4986865672126</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(B123,Sheet1!A:C,3)</f>
-        <v>3945.0505021742961</v>
+        <v>-3235.2760785107798</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <f>VLOOKUP(B124,Sheet1!A:C,2)</f>
-        <v>-992.05807099995889</v>
+        <v>6693.8194104071563</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(B124,Sheet1!A:C,3)</f>
-        <v>1394.9492504497441</v>
+        <v>-3297.18325042177</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C125">
         <f>VLOOKUP(B125,Sheet1!A:C,2)</f>
-        <v>6379.4986865672126</v>
+        <v>9234.5204230955496</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(B125,Sheet1!A:C,3)</f>
-        <v>-3235.2760785107798</v>
+        <v>-2685.2051349285739</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C126">
         <f>VLOOKUP(B126,Sheet1!A:C,2)</f>
-        <v>-218.75606590392849</v>
+        <v>10281.694613088561</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(B126,Sheet1!A:C,3)</f>
-        <v>-1619.4790970764491</v>
+        <v>-2152.277731751029</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C127">
         <f>VLOOKUP(B127,Sheet1!A:C,2)</f>
-        <v>-3765.5599582930599</v>
+        <v>10746.05209100755</v>
       </c>
       <c r="D127">
         <f>VLOOKUP(B127,Sheet1!A:C,3)</f>
-        <v>393.90939394843451</v>
+        <v>-1694.5516853447491</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C128">
         <f>VLOOKUP(B128,Sheet1!A:C,2)</f>
-        <v>-2366.792765438533</v>
+        <v>10948.523140461881</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(B128,Sheet1!A:C,3)</f>
-        <v>1480.513574274888</v>
+        <v>-1835.4276676620141</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C129">
         <f>VLOOKUP(B129,Sheet1!A:C,2)</f>
-        <v>-2967.322411257956</v>
+        <v>11089.58501690105</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(B129,Sheet1!A:C,3)</f>
-        <v>-98.385218985267159</v>
+        <v>-1942.6961710819489</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="C130">
         <f>VLOOKUP(B130,Sheet1!A:C,2)</f>
-        <v>-3026.500603721091</v>
+        <v>11643.965712134561</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(B130,Sheet1!A:C,3)</f>
-        <v>-2478.1689463635721</v>
+        <v>-1641.247114639219</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C131">
         <f>VLOOKUP(B131,Sheet1!A:C,2)</f>
-        <v>-1400.5035683355429</v>
+        <v>12648.14065723243</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(B131,Sheet1!A:C,3)</f>
-        <v>-1510.4036350902511</v>
+        <v>-521.80262285345202</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C131" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D131">
+      <sortCondition ref="C1:C131"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataIntermediate/PCA_Dist_Prod.xlsx
+++ b/DataIntermediate/PCA_Dist_Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/Modelado_Merlin/GitHub_Datos/Social_Model_Enchugal/DataIntermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DB114E441178AC67DF44D1E54E324683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF141316-B3B5-48B6-908B-697DFCB4522F}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DB114E441178AC67DF44D1E54E324683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD0617BC-6FC1-43E5-B7FB-D581FDE4AE20}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance_Prods" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,13 +588,26 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -624,11 +637,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2321,10 +2336,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2590,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3538,18 +3549,18 @@
         <v>1843.7409618914951</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>89</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <f>VLOOKUP(B60,Sheet1!A:C,2)</f>
         <v>-1299.3509726961611</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <f>VLOOKUP(B60,Sheet1!A:C,3)</f>
         <v>-549.393299041148</v>
       </c>
@@ -3586,18 +3597,18 @@
         <v>-4146.4154722346066</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>22</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <f>VLOOKUP(B63,Sheet1!A:C,2)</f>
         <v>-1224.85883795987</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <f>VLOOKUP(B63,Sheet1!A:C,3)</f>
         <v>51.520057765659651</v>
       </c>
@@ -3958,10 +3969,10 @@
       <c r="A86">
         <v>6</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <f>VLOOKUP(B86,Sheet1!A:C,2)</f>
         <v>691.4138233231489</v>
       </c>
@@ -3974,10 +3985,10 @@
       <c r="A87">
         <v>9</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <f>VLOOKUP(B87,Sheet1!A:C,2)</f>
         <v>755.81095092591192</v>
       </c>
@@ -3990,10 +4001,10 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <f>VLOOKUP(B88,Sheet1!A:C,2)</f>
         <v>918.23898061251487</v>
       </c>
@@ -4009,7 +4020,7 @@
       <c r="B89" t="s">
         <v>109</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <f>VLOOKUP(B89,Sheet1!A:C,2)</f>
         <v>924.32462430879991</v>
       </c>
@@ -4025,7 +4036,7 @@
       <c r="B90" t="s">
         <v>81</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <f>VLOOKUP(B90,Sheet1!A:C,2)</f>
         <v>966.17319251228741</v>
       </c>
@@ -4041,7 +4052,7 @@
       <c r="B91" t="s">
         <v>54</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <f>VLOOKUP(B91,Sheet1!A:C,2)</f>
         <v>1371.4182405781621</v>
       </c>
@@ -4057,7 +4068,7 @@
       <c r="B92" t="s">
         <v>95</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <f>VLOOKUP(B92,Sheet1!A:C,2)</f>
         <v>1408.3573639813001</v>
       </c>
@@ -4073,7 +4084,7 @@
       <c r="B93" t="s">
         <v>108</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <f>VLOOKUP(B93,Sheet1!A:C,2)</f>
         <v>1408.571633415937</v>
       </c>
@@ -4089,7 +4100,7 @@
       <c r="B94" t="s">
         <v>73</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <f>VLOOKUP(B94,Sheet1!A:C,2)</f>
         <v>1694.5730649824241</v>
       </c>
@@ -4105,7 +4116,7 @@
       <c r="B95" t="s">
         <v>106</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <f>VLOOKUP(B95,Sheet1!A:C,2)</f>
         <v>1779.2891314930271</v>
       </c>
@@ -4121,7 +4132,7 @@
       <c r="B96" t="s">
         <v>121</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <f>VLOOKUP(B96,Sheet1!A:C,2)</f>
         <v>1984.848979293467</v>
       </c>
@@ -4137,7 +4148,7 @@
       <c r="B97" t="s">
         <v>21</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <f>VLOOKUP(B97,Sheet1!A:C,2)</f>
         <v>1991.683908521703</v>
       </c>
@@ -4153,7 +4164,7 @@
       <c r="B98" t="s">
         <v>18</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <f>VLOOKUP(B98,Sheet1!A:C,2)</f>
         <v>2294.7474801282428</v>
       </c>
@@ -4169,7 +4180,7 @@
       <c r="B99" t="s">
         <v>16</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <f>VLOOKUP(B99,Sheet1!A:C,2)</f>
         <v>2479.1825249588728</v>
       </c>
@@ -4185,7 +4196,7 @@
       <c r="B100" t="s">
         <v>68</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <f>VLOOKUP(B100,Sheet1!A:C,2)</f>
         <v>2977.6019835679858</v>
       </c>
@@ -4201,7 +4212,7 @@
       <c r="B101" t="s">
         <v>60</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <f>VLOOKUP(B101,Sheet1!A:C,2)</f>
         <v>3091.460377627976</v>
       </c>
@@ -4217,7 +4228,7 @@
       <c r="B102" t="s">
         <v>112</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <f>VLOOKUP(B102,Sheet1!A:C,2)</f>
         <v>3331.709033466122</v>
       </c>
@@ -4233,7 +4244,7 @@
       <c r="B103" t="s">
         <v>6</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <f>VLOOKUP(B103,Sheet1!A:C,2)</f>
         <v>3421.3357391623949</v>
       </c>
@@ -4249,7 +4260,7 @@
       <c r="B104" t="s">
         <v>120</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <f>VLOOKUP(B104,Sheet1!A:C,2)</f>
         <v>3523.5027289210889</v>
       </c>
@@ -4265,7 +4276,7 @@
       <c r="B105" t="s">
         <v>49</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <f>VLOOKUP(B105,Sheet1!A:C,2)</f>
         <v>3581.875310069548</v>
       </c>
@@ -4281,7 +4292,7 @@
       <c r="B106" t="s">
         <v>64</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <f>VLOOKUP(B106,Sheet1!A:C,2)</f>
         <v>3598.9059684028198</v>
       </c>
@@ -4297,7 +4308,7 @@
       <c r="B107" t="s">
         <v>56</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
         <f>VLOOKUP(B107,Sheet1!A:C,2)</f>
         <v>3752.373483045159</v>
       </c>
@@ -4313,7 +4324,7 @@
       <c r="B108" t="s">
         <v>77</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
         <f>VLOOKUP(B108,Sheet1!A:C,2)</f>
         <v>3943.427576866201</v>
       </c>
@@ -4329,7 +4340,7 @@
       <c r="B109" t="s">
         <v>2</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <f>VLOOKUP(B109,Sheet1!A:C,2)</f>
         <v>4359.9652050077684</v>
       </c>
@@ -4345,7 +4356,7 @@
       <c r="B110" t="s">
         <v>82</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <f>VLOOKUP(B110,Sheet1!A:C,2)</f>
         <v>4475.480845645523</v>
       </c>
@@ -4361,7 +4372,7 @@
       <c r="B111" t="s">
         <v>84</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <f>VLOOKUP(B111,Sheet1!A:C,2)</f>
         <v>4758.1295398790326</v>
       </c>
@@ -4377,7 +4388,7 @@
       <c r="B112" t="s">
         <v>31</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <f>VLOOKUP(B112,Sheet1!A:C,2)</f>
         <v>4831.6282979650532</v>
       </c>
@@ -4393,7 +4404,7 @@
       <c r="B113" t="s">
         <v>100</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <f>VLOOKUP(B113,Sheet1!A:C,2)</f>
         <v>4879.9535885835048</v>
       </c>
@@ -4409,7 +4420,7 @@
       <c r="B114" t="s">
         <v>98</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <f>VLOOKUP(B114,Sheet1!A:C,2)</f>
         <v>5160.1650753197946</v>
       </c>
@@ -4425,7 +4436,7 @@
       <c r="B115" t="s">
         <v>25</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <f>VLOOKUP(B115,Sheet1!A:C,2)</f>
         <v>5185.7492249399293</v>
       </c>
@@ -4441,7 +4452,7 @@
       <c r="B116" t="s">
         <v>85</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <f>VLOOKUP(B116,Sheet1!A:C,2)</f>
         <v>5504.0100820762373</v>
       </c>
@@ -4450,18 +4461,18 @@
         <v>8284.9287238593206</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="117" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
         <v>16</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <f>VLOOKUP(B117,Sheet1!A:C,2)</f>
         <v>5512.2982389678946</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <f>VLOOKUP(B117,Sheet1!A:C,3)</f>
         <v>9411.2431382811319</v>
       </c>
@@ -4473,7 +4484,7 @@
       <c r="B118" t="s">
         <v>94</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <f>VLOOKUP(B118,Sheet1!A:C,2)</f>
         <v>5591.1819460346196</v>
       </c>
@@ -4489,7 +4500,7 @@
       <c r="B119" t="s">
         <v>3</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <f>VLOOKUP(B119,Sheet1!A:C,2)</f>
         <v>5700.3903667311897</v>
       </c>
@@ -4505,7 +4516,7 @@
       <c r="B120" t="s">
         <v>113</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
         <f>VLOOKUP(B120,Sheet1!A:C,2)</f>
         <v>5792.8628259227426</v>
       </c>
@@ -4521,7 +4532,7 @@
       <c r="B121" t="s">
         <v>1</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
         <f>VLOOKUP(B121,Sheet1!A:C,2)</f>
         <v>5929.4708877101584</v>
       </c>
@@ -4537,7 +4548,7 @@
       <c r="B122" t="s">
         <v>44</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
         <f>VLOOKUP(B122,Sheet1!A:C,2)</f>
         <v>6057.167566447436</v>
       </c>
@@ -4553,7 +4564,7 @@
       <c r="B123" t="s">
         <v>124</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <f>VLOOKUP(B123,Sheet1!A:C,2)</f>
         <v>6379.4986865672126</v>
       </c>
@@ -4569,7 +4580,7 @@
       <c r="B124" t="s">
         <v>15</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
         <f>VLOOKUP(B124,Sheet1!A:C,2)</f>
         <v>6693.8194104071563</v>
       </c>
@@ -4585,7 +4596,7 @@
       <c r="B125" t="s">
         <v>89</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
         <f>VLOOKUP(B125,Sheet1!A:C,2)</f>
         <v>9234.5204230955496</v>
       </c>
@@ -4601,7 +4612,7 @@
       <c r="B126" t="s">
         <v>91</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
         <f>VLOOKUP(B126,Sheet1!A:C,2)</f>
         <v>10281.694613088561</v>
       </c>
@@ -4617,7 +4628,7 @@
       <c r="B127" t="s">
         <v>74</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
         <f>VLOOKUP(B127,Sheet1!A:C,2)</f>
         <v>10746.05209100755</v>
       </c>
@@ -4633,7 +4644,7 @@
       <c r="B128" t="s">
         <v>104</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <f>VLOOKUP(B128,Sheet1!A:C,2)</f>
         <v>10948.523140461881</v>
       </c>
@@ -4649,7 +4660,7 @@
       <c r="B129" t="s">
         <v>119</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <f>VLOOKUP(B129,Sheet1!A:C,2)</f>
         <v>11089.58501690105</v>
       </c>
@@ -4665,7 +4676,7 @@
       <c r="B130" t="s">
         <v>43</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <f>VLOOKUP(B130,Sheet1!A:C,2)</f>
         <v>11643.965712134561</v>
       </c>
@@ -4674,18 +4685,18 @@
         <v>-1641.247114639219</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>52</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
         <f>VLOOKUP(B131,Sheet1!A:C,2)</f>
         <v>12648.14065723243</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <f>VLOOKUP(B131,Sheet1!A:C,3)</f>
         <v>-521.80262285345202</v>
       </c>
